--- a/tie2140/tutorials/tie2140-24-tut-6-lab-2-templates.xlsx
+++ b/tie2140/tutorials/tie2140-24-tut-6-lab-2-templates.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="20406"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="20407"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9CB86044-2569-42DF-B2D8-BC286BE262E6}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{51C1FA62-96A2-4DCE-AA93-F64773D0BCF2}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="110" windowWidth="14810" windowHeight="8030" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -372,9 +372,6 @@
     <t>C33 =-$B$11</t>
   </si>
   <si>
-    <t>M26 =B13</t>
-  </si>
-  <si>
     <t>C37, C38, C39 = =$B$12/3</t>
   </si>
   <si>
@@ -493,6 +490,9 @@
   </si>
   <si>
     <t xml:space="preserve">TIE2140 Tutorial 6 (Lab 2)  </t>
+  </si>
+  <si>
+    <t>M35 =B13</t>
   </si>
 </sst>
 </file>
@@ -1078,30 +1078,6 @@
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="14" fillId="10" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="14" fillId="10" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="14" fillId="10" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -1111,6 +1087,30 @@
     <xf numFmtId="0" fontId="14" fillId="10" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="14" fillId="10" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="14" fillId="10" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Currency" xfId="1" builtinId="4"/>
@@ -1482,15 +1482,15 @@
   <sheetData>
     <row r="1" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
+        <v>62</v>
+      </c>
+      <c r="B1" t="s">
         <v>63</v>
-      </c>
-      <c r="B1" t="s">
-        <v>64</v>
       </c>
     </row>
     <row r="2" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B2">
         <v>4</v>
@@ -1498,7 +1498,7 @@
     </row>
     <row r="3" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -1506,58 +1506,58 @@
     </row>
     <row r="5" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
+        <v>80</v>
+      </c>
+      <c r="B5" t="s">
         <v>81</v>
       </c>
-      <c r="B5" t="s">
+      <c r="C5" t="s">
         <v>82</v>
       </c>
-      <c r="C5" t="s">
+      <c r="D5" t="s">
         <v>83</v>
       </c>
-      <c r="D5" t="s">
+      <c r="E5" t="s">
         <v>84</v>
       </c>
-      <c r="E5" t="s">
+      <c r="F5" t="s">
         <v>85</v>
       </c>
-      <c r="F5" t="s">
+      <c r="J5" t="s">
         <v>86</v>
       </c>
-      <c r="J5" t="s">
+      <c r="K5" t="s">
         <v>87</v>
       </c>
-      <c r="K5" t="s">
+      <c r="L5" t="s">
         <v>88</v>
       </c>
-      <c r="L5" t="s">
+      <c r="N5" t="s">
         <v>89</v>
       </c>
-      <c r="N5" t="s">
+      <c r="O5" t="s">
         <v>90</v>
       </c>
-      <c r="O5" t="s">
+      <c r="P5" t="s">
         <v>91</v>
       </c>
-      <c r="P5" t="s">
+      <c r="R5" t="s">
         <v>92</v>
       </c>
-      <c r="R5" t="s">
+      <c r="S5" t="s">
         <v>93</v>
       </c>
-      <c r="S5" t="s">
+      <c r="T5" t="s">
         <v>94</v>
       </c>
-      <c r="T5" t="s">
+      <c r="V5" t="s">
         <v>95</v>
       </c>
-      <c r="V5" t="s">
+      <c r="W5" t="s">
         <v>96</v>
       </c>
-      <c r="W5" t="s">
+      <c r="X5" t="s">
         <v>97</v>
-      </c>
-      <c r="X5" t="s">
-        <v>98</v>
       </c>
     </row>
     <row r="6" spans="1:24" x14ac:dyDescent="0.35">
@@ -1578,7 +1578,7 @@
         <v>1</v>
       </c>
       <c r="K6" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="L6" t="e">
         <f ca="1">ModelRef('3 Prob Model'!$B$46,1,0,0)</f>
@@ -1603,7 +1603,7 @@
         <v>1</v>
       </c>
       <c r="K7" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="L7" t="e">
         <f ca="1">ModelRef('3 Prob Model'!$B$5,2,0,0)+ModelRef('3 Prob Model'!$B$5,3,0,-1)</f>
@@ -1612,16 +1612,16 @@
     </row>
     <row r="9" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
+        <v>66</v>
+      </c>
+      <c r="C9" t="s">
         <v>67</v>
       </c>
-      <c r="C9" t="s">
+      <c r="D9" t="s">
         <v>68</v>
       </c>
-      <c r="D9" t="s">
+      <c r="E9" t="s">
         <v>69</v>
-      </c>
-      <c r="E9" t="s">
-        <v>70</v>
       </c>
     </row>
     <row r="10" spans="1:24" x14ac:dyDescent="0.35">
@@ -1633,16 +1633,16 @@
         <v>1</v>
       </c>
       <c r="E10" t="s">
+        <v>70</v>
+      </c>
+      <c r="F10">
+        <v>0</v>
+      </c>
+      <c r="G10" t="s">
         <v>71</v>
       </c>
-      <c r="F10">
-        <v>0</v>
-      </c>
-      <c r="G10" t="s">
-        <v>72</v>
-      </c>
       <c r="H10" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="I10">
         <v>0</v>
@@ -1657,16 +1657,16 @@
         <v>1</v>
       </c>
       <c r="E11" t="s">
+        <v>72</v>
+      </c>
+      <c r="F11">
+        <v>0</v>
+      </c>
+      <c r="G11" t="s">
         <v>73</v>
       </c>
-      <c r="F11">
-        <v>0</v>
-      </c>
-      <c r="G11" t="s">
-        <v>74</v>
-      </c>
       <c r="H11" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="I11">
         <v>0</v>
@@ -1681,16 +1681,16 @@
         <v>1</v>
       </c>
       <c r="E12" t="s">
+        <v>74</v>
+      </c>
+      <c r="F12">
+        <v>0</v>
+      </c>
+      <c r="G12" t="s">
         <v>75</v>
       </c>
-      <c r="F12">
-        <v>0</v>
-      </c>
-      <c r="G12" t="s">
-        <v>76</v>
-      </c>
       <c r="H12" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="I12">
         <v>0</v>
@@ -1706,7 +1706,7 @@
   <dimension ref="A1:O60"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1727,7 +1727,7 @@
   <sheetData>
     <row r="1" spans="1:15" ht="24.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A1" s="21" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B1" s="22"/>
       <c r="C1" s="22"/>
@@ -1937,11 +1937,11 @@
         <v>7500000</v>
       </c>
       <c r="C12" s="37"/>
-      <c r="D12" s="88" t="s">
+      <c r="D12" s="80" t="s">
         <v>47</v>
       </c>
-      <c r="E12" s="89"/>
-      <c r="F12" s="90"/>
+      <c r="E12" s="81"/>
+      <c r="F12" s="82"/>
       <c r="G12" s="26"/>
       <c r="H12" s="17"/>
       <c r="I12" s="17"/>
@@ -1960,11 +1960,11 @@
         <v>500000</v>
       </c>
       <c r="C13" s="37"/>
-      <c r="D13" s="91" t="s">
+      <c r="D13" s="83" t="s">
         <v>55</v>
       </c>
-      <c r="E13" s="92"/>
-      <c r="F13" s="93"/>
+      <c r="E13" s="84"/>
+      <c r="F13" s="85"/>
       <c r="G13" s="26"/>
       <c r="H13" s="17"/>
       <c r="I13" s="17"/>
@@ -1979,11 +1979,11 @@
       <c r="A14" s="39"/>
       <c r="B14" s="39"/>
       <c r="C14" s="39"/>
-      <c r="D14" s="91" t="s">
+      <c r="D14" s="83" t="s">
         <v>56</v>
       </c>
-      <c r="E14" s="92"/>
-      <c r="F14" s="93"/>
+      <c r="E14" s="84"/>
+      <c r="F14" s="85"/>
       <c r="G14" s="26"/>
       <c r="H14" s="17"/>
       <c r="I14" s="17"/>
@@ -2002,11 +2002,11 @@
         <v>42</v>
       </c>
       <c r="C15" s="37"/>
-      <c r="D15" s="91" t="s">
+      <c r="D15" s="83" t="s">
         <v>57</v>
       </c>
-      <c r="E15" s="92"/>
-      <c r="F15" s="93"/>
+      <c r="E15" s="84"/>
+      <c r="F15" s="85"/>
       <c r="G15" s="26"/>
       <c r="H15" s="17"/>
       <c r="I15" s="17"/>
@@ -2025,11 +2025,11 @@
         <v>7</v>
       </c>
       <c r="C16" s="41"/>
-      <c r="D16" s="91" t="s">
+      <c r="D16" s="83" t="s">
         <v>58</v>
       </c>
-      <c r="E16" s="92"/>
-      <c r="F16" s="93"/>
+      <c r="E16" s="84"/>
+      <c r="F16" s="85"/>
       <c r="G16" s="26"/>
       <c r="H16" s="17"/>
       <c r="I16" s="17"/>
@@ -2048,11 +2048,11 @@
         <v>0.17</v>
       </c>
       <c r="C17" s="44"/>
-      <c r="D17" s="91" t="s">
+      <c r="D17" s="83" t="s">
         <v>59</v>
       </c>
-      <c r="E17" s="92"/>
-      <c r="F17" s="93"/>
+      <c r="E17" s="84"/>
+      <c r="F17" s="85"/>
       <c r="G17" s="26"/>
       <c r="H17" s="17"/>
       <c r="I17" s="17"/>
@@ -2071,11 +2071,11 @@
         <v>0.15</v>
       </c>
       <c r="C18" s="45"/>
-      <c r="D18" s="91" t="s">
+      <c r="D18" s="83" t="s">
         <v>60</v>
       </c>
-      <c r="E18" s="92"/>
-      <c r="F18" s="93"/>
+      <c r="E18" s="84"/>
+      <c r="F18" s="85"/>
       <c r="G18" s="17"/>
       <c r="H18" s="17"/>
       <c r="I18" s="17"/>
@@ -2094,11 +2094,11 @@
         <v>29</v>
       </c>
       <c r="C19" s="45"/>
-      <c r="D19" s="91" t="s">
-        <v>61</v>
-      </c>
-      <c r="E19" s="92"/>
-      <c r="F19" s="93"/>
+      <c r="D19" s="83" t="s">
+        <v>101</v>
+      </c>
+      <c r="E19" s="84"/>
+      <c r="F19" s="85"/>
       <c r="G19" s="17"/>
       <c r="H19" s="17"/>
       <c r="I19" s="17"/>
@@ -2117,11 +2117,11 @@
         <v>0</v>
       </c>
       <c r="C20" s="45"/>
-      <c r="D20" s="94" t="s">
-        <v>62</v>
-      </c>
-      <c r="E20" s="95"/>
-      <c r="F20" s="96"/>
+      <c r="D20" s="86" t="s">
+        <v>61</v>
+      </c>
+      <c r="E20" s="87"/>
+      <c r="F20" s="88"/>
       <c r="G20" s="17"/>
       <c r="H20" s="17"/>
       <c r="I20" s="17"/>
@@ -3090,7 +3090,7 @@
   <sheetData>
     <row r="1" spans="1:15" ht="24.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A1" s="21" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B1" s="22"/>
       <c r="C1" s="22"/>
@@ -3111,11 +3111,11 @@
       </c>
       <c r="B3" s="25"/>
       <c r="C3" s="26"/>
-      <c r="D3" s="80" t="s">
+      <c r="D3" s="89" t="s">
         <v>24</v>
       </c>
-      <c r="E3" s="81"/>
-      <c r="F3" s="82"/>
+      <c r="E3" s="90"/>
+      <c r="F3" s="91"/>
       <c r="G3" s="17"/>
       <c r="H3" s="26"/>
       <c r="I3" s="26"/>
@@ -4697,7 +4697,7 @@
   <sheetData>
     <row r="1" spans="1:15" ht="24.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A1" s="21" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B1" s="22"/>
       <c r="C1" s="22"/>
@@ -4718,17 +4718,17 @@
       </c>
       <c r="B3" s="25"/>
       <c r="C3" s="26"/>
-      <c r="D3" s="80" t="s">
+      <c r="D3" s="89" t="s">
         <v>24</v>
       </c>
-      <c r="E3" s="81"/>
-      <c r="F3" s="82"/>
+      <c r="E3" s="90"/>
+      <c r="F3" s="91"/>
       <c r="G3" s="17"/>
-      <c r="H3" s="83" t="s">
+      <c r="H3" s="92" t="s">
         <v>37</v>
       </c>
-      <c r="I3" s="84"/>
-      <c r="J3" s="85"/>
+      <c r="I3" s="93"/>
+      <c r="J3" s="94"/>
       <c r="K3" s="26"/>
       <c r="L3" s="26"/>
       <c r="M3" s="26"/>
@@ -4740,7 +4740,7 @@
         <v>22</v>
       </c>
       <c r="B4" s="28" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C4" s="29"/>
       <c r="D4" s="2" t="s">
@@ -4756,10 +4756,10 @@
       <c r="H4" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="I4" s="86" t="s">
+      <c r="I4" s="95" t="s">
         <v>39</v>
       </c>
-      <c r="J4" s="87"/>
+      <c r="J4" s="96"/>
       <c r="K4" s="26"/>
       <c r="L4" s="30"/>
       <c r="M4" s="30"/>
@@ -5099,7 +5099,7 @@
       </c>
       <c r="C17" s="44"/>
       <c r="D17" s="79" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E17" s="79"/>
       <c r="F17" s="79"/>
@@ -5122,7 +5122,7 @@
       </c>
       <c r="C18" s="45"/>
       <c r="D18" s="79" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E18" s="79"/>
       <c r="F18" s="79"/>
@@ -5145,7 +5145,7 @@
       </c>
       <c r="C19" s="45"/>
       <c r="D19" s="79" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E19" s="79"/>
       <c r="F19" s="79"/>
@@ -6336,7 +6336,7 @@
   <sheetData>
     <row r="1" spans="1:12" ht="18" x14ac:dyDescent="0.35">
       <c r="A1" s="21" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.35">
@@ -6354,17 +6354,17 @@
       <c r="L2" s="23"/>
     </row>
     <row r="3" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A3" s="83" t="s">
+      <c r="A3" s="92" t="s">
         <v>24</v>
       </c>
-      <c r="B3" s="84"/>
-      <c r="C3" s="85"/>
+      <c r="B3" s="93"/>
+      <c r="C3" s="94"/>
       <c r="D3" s="1"/>
-      <c r="E3" s="83" t="s">
+      <c r="E3" s="92" t="s">
         <v>37</v>
       </c>
-      <c r="F3" s="84"/>
-      <c r="G3" s="85"/>
+      <c r="F3" s="93"/>
+      <c r="G3" s="94"/>
       <c r="H3" s="23"/>
       <c r="I3" s="23"/>
       <c r="J3" s="23"/>
@@ -6385,10 +6385,10 @@
       <c r="E4" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="F4" s="86" t="s">
+      <c r="F4" s="95" t="s">
         <v>39</v>
       </c>
-      <c r="G4" s="87"/>
+      <c r="G4" s="96"/>
       <c r="H4" s="23"/>
       <c r="I4" s="23"/>
       <c r="J4" s="23"/>
